--- a/data/trans_camb/P12B1_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12B1_3_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,8</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,88</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,24</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,66</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>8,82</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5,14</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-31,53; 48,69</t>
+          <t>-9,94; 8,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-32,49; 42,42</t>
+          <t>-7,27; 16,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-30,88; 28,69</t>
+          <t>-10,64; 9,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-36,69; 26,65</t>
+          <t>-11,26; 11,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,67; 28,12</t>
+          <t>-15,78; 4,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,66; 26,12</t>
+          <t>-7,7; 37,87</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-7,8; 7,37</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-7,55; 6,91</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-4,43; 24,46</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>-9,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>74,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,28%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>-52,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,59%</t>
+          <t>99,55%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-3,18%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-12,63%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>75,87%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-42,17; 175,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-47,49; 145,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,95; 53,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-45,43; 48,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,86; 58,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,79; 54,39</t>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-74,79; 289,89</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-79,25; 359,24</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-64,89; 971,7</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-22,25</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-12,84</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-12,25</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>2,48</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,48</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,15</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-57,44; 27,08</t>
+          <t>-8,16; 0,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-55,3; 37,69</t>
+          <t>-6,41; 2,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-28,64; 38,57</t>
+          <t>-5,46; 4,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-23,44; 38,65</t>
+          <t>-3,08; 2,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-37,2; 16,02</t>
+          <t>-2,82; 3,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,61; 23,57</t>
+          <t>-1,13; 7,17</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-3,86; 1,08</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 2,18</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,77; 4,82</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-43,4%</t>
+          <t>-58,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-25,05%</t>
+          <t>-23,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>-5,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>-4,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-23,51%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,82%</t>
+          <t>103,95%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-40,48%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-12,16%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>31,39%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-81,96; 70,11</t>
+          <t>-92,58; 68,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-75,59; 87,35</t>
+          <t>-81,2; 120,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-46,08; 118,97</t>
+          <t>-74,95; 200,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,91; 111,46</t>
+          <t>-83,41; 388,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-60,97; 37,29</t>
+          <t>-77,19; 408,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,54; 56,48</t>
+          <t>-51,04; 848,56</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-78,92; 86,49</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-62,37; 104,19</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-39,73; 202,46</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>28,06</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,73</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-15,7</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,63</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,34; 64,86</t>
+          <t>-1,01; 6,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-34,2; 43,44</t>
+          <t>-0,67; 7,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-47,53; 22,09</t>
+          <t>-2,89; 2,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-38,69; 26,72</t>
+          <t>-4,77; 1,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,1; 31,72</t>
+          <t>-3,06; 4,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-31,02; 24,38</t>
+          <t>-2,73; 5,41</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-1,94; 2,85</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,35; 4,34</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-2,02; 3,3</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>170,34%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>35,83%</t>
+          <t>181,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-23,51%</t>
+          <t>-8,83%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-11,43%</t>
+          <t>-45,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>17,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>51,68%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>14,14%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>62,39%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>30,08%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-57,78; 769,59</t>
+          <t>-81,75; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-69,35; 555,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-61,47; 43,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-50,37; 65,27</t>
+          <t>-100,0; 189,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,01; 89,56</t>
+          <t>-74,1; 399,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,21; 69,33</t>
+          <t>-64,51; 470,78</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-64,31; 292,23</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-43,27; 366,73</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-59,96; 356,66</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,02</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,02</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 23,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-31,62; 21,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-20,38; 21,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-19,88; 18,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 12,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,62; 13,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-10,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-6,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-7,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-4,2%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-52,66; 64,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-53,34; 57,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,45; 44,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,64; 37,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,31; 25,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,42; 28,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3,73</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,58; 2,16</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,07; 4,09</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-2,7; 3,12</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-2,97; 1,79</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,88; 1,94</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,2; 11,71</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; 1,45</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,66; 2,2</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 6,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-16,73%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>23,96%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-17,26%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-10,07%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>106,0%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-16,98%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>6,81%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>54,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-69,82; 109,97</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-41,57; 202,37</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-57,26; 151,58</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-63,68; 102,87</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-59,6; 93,9</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-12,91; 459,98</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-53,72; 52,94</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-38,27; 85,04</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-18,41; 193,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
